--- a/CE_mod/Omaha_Cal_Info_CE09OSSM_00001_mod.xlsx
+++ b/CE_mod/Omaha_Cal_Info_CE09OSSM_00001_mod.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\# OOI_Asset_Management\CE_mod\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="1470" windowWidth="12720" windowHeight="6915" tabRatio="766" activeTab="1"/>
+    <workbookView xWindow="1056" yWindow="1476" windowWidth="12720" windowHeight="6912" tabRatio="766"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -21,7 +26,7 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -756,7 +761,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1440,7 +1445,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1475,7 +1480,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1686,30 +1691,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" style="18" customWidth="1"/>
     <col min="2" max="2" width="16" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="19" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="18" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" style="18" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="18"/>
+    <col min="4" max="4" width="15.6640625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" style="18" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" style="18" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="18" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="16" customFormat="1" ht="41.45">
+    <row r="1" spans="1:14" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>202</v>
       </c>
@@ -1747,7 +1752,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15">
+    <row r="2" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>204</v>
       </c>
@@ -1764,10 +1769,10 @@
         <v>42103</v>
       </c>
       <c r="F2" s="21">
-        <v>0.73402777777777783</v>
+        <v>0.64861111111111114</v>
       </c>
       <c r="G2" s="31">
-        <v>42292</v>
+        <v>42272</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>144</v>
@@ -1791,22 +1796,22 @@
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:14" customFormat="1" ht="14.45">
+    <row r="4" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="26"/>
     </row>
-    <row r="5" spans="1:14" customFormat="1" ht="14.45">
+    <row r="5" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="26"/>
     </row>
-    <row r="6" spans="1:14" customFormat="1" ht="14.45">
+    <row r="6" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
     </row>
-    <row r="7" spans="1:14" customFormat="1" ht="14.45">
+    <row r="7" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
     </row>
-    <row r="8" spans="1:14" customFormat="1" ht="14.45">
+    <row r="8" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="26"/>
     </row>
-    <row r="9" spans="1:14" customFormat="1" ht="14.45">
+    <row r="9" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="26"/>
     </row>
   </sheetData>
@@ -1819,26 +1824,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="41.45">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -1867,7 +1872,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1875,7 +1880,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="14.45">
+    <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
@@ -1895,11 +1900,11 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="10" customFormat="1" ht="13.9">
+    <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F4" s="22"/>
       <c r="I4" s="22"/>
     </row>
-    <row r="5" spans="1:9" s="10" customFormat="1" ht="14.45">
+    <row r="5" spans="1:9" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>197</v>
       </c>
@@ -1917,11 +1922,11 @@
       </c>
       <c r="I5" s="22"/>
     </row>
-    <row r="6" spans="1:9" s="10" customFormat="1" ht="13.9">
+    <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F6" s="22"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" ht="14.45">
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>198</v>
       </c>
@@ -1939,10 +1944,10 @@
       </c>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:9" ht="13.9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
+    <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>113</v>
       </c>
@@ -1969,7 +1974,7 @@
       </c>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
+    <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>113</v>
       </c>
@@ -1996,7 +2001,7 @@
       </c>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>113</v>
       </c>
@@ -2023,7 +2028,7 @@
       </c>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" spans="1:9" ht="15">
+    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>113</v>
       </c>
@@ -2050,7 +2055,7 @@
       </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9" ht="15">
+    <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>113</v>
       </c>
@@ -2077,7 +2082,7 @@
       </c>
       <c r="I13" s="22"/>
     </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>113</v>
       </c>
@@ -2104,7 +2109,7 @@
       </c>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:9" ht="15">
+    <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>113</v>
       </c>
@@ -2133,7 +2138,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15">
+    <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>113</v>
       </c>
@@ -2162,7 +2167,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15">
+    <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>113</v>
       </c>
@@ -2191,10 +2196,10 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="13.9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:9" ht="14.45">
+    <row r="19" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>137</v>
       </c>
@@ -2218,10 +2223,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="13.9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="14.45">
+    <row r="21" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>114</v>
       </c>
@@ -2247,7 +2252,7 @@
         <v>46.853848333333332</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.45">
+    <row r="22" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>114</v>
       </c>
@@ -2273,10 +2278,10 @@
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="13.9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="14.45">
+    <row r="24" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>138</v>
       </c>
@@ -2302,7 +2307,7 @@
         <v>46.853848333333332</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.45">
+    <row r="25" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>138</v>
       </c>
@@ -2328,8 +2333,8 @@
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="10" customFormat="1" ht="13.9"/>
-    <row r="27" spans="1:9" ht="14.45">
+    <row r="26" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>115</v>
       </c>
@@ -2355,7 +2360,7 @@
         <v>46.853848333333332</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.45">
+    <row r="28" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>115</v>
       </c>
@@ -2381,10 +2386,10 @@
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="13.9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="14.45">
+    <row r="30" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>116</v>
       </c>
@@ -2410,7 +2415,7 @@
         <v>17533</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.45">
+    <row r="31" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>116</v>
       </c>
@@ -2436,7 +2441,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="14.45">
+    <row r="32" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>116</v>
       </c>
@@ -2462,7 +2467,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="14.45">
+    <row r="33" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>116</v>
       </c>
@@ -2488,7 +2493,7 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="14.45">
+    <row r="34" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>116</v>
       </c>
@@ -2514,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="14.45">
+    <row r="35" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>116</v>
       </c>
@@ -2540,7 +2545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="10" customFormat="1" ht="14.45">
+    <row r="36" spans="1:9" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>116</v>
       </c>
@@ -2569,10 +2574,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="13.9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:9" ht="14.45">
+    <row r="38" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>117</v>
       </c>
@@ -2598,7 +2603,7 @@
         <v>17533</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.45">
+    <row r="39" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>117</v>
       </c>
@@ -2624,7 +2629,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14.45">
+    <row r="40" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>117</v>
       </c>
@@ -2650,7 +2655,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.45">
+    <row r="41" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>117</v>
       </c>
@@ -2676,7 +2681,7 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.45">
+    <row r="42" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>117</v>
       </c>
@@ -2702,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.45">
+    <row r="43" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>117</v>
       </c>
@@ -2728,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="10" customFormat="1" ht="14.45">
+    <row r="44" spans="1:9" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>117</v>
       </c>
@@ -2757,10 +2762,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="13.9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="1:9" ht="14.45">
+    <row r="46" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>118</v>
       </c>
@@ -2786,7 +2791,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="14.45">
+    <row r="47" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>118</v>
       </c>
@@ -2812,7 +2817,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15">
+    <row r="48" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>118</v>
       </c>
@@ -2838,7 +2843,7 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15">
+    <row r="49" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>118</v>
       </c>
@@ -2864,7 +2869,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15">
+    <row r="50" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>118</v>
       </c>
@@ -2890,7 +2895,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15">
+    <row r="51" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>118</v>
       </c>
@@ -2916,7 +2921,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15">
+    <row r="52" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>118</v>
       </c>
@@ -2942,7 +2947,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="6" customFormat="1" ht="15">
+    <row r="53" spans="1:8" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>118</v>
       </c>
@@ -2968,10 +2973,10 @@
         <v>167</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G54" s="10"/>
     </row>
-    <row r="55" spans="1:8" ht="15">
+    <row r="55" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>119</v>
       </c>
@@ -2997,7 +3002,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15">
+    <row r="56" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>119</v>
       </c>
@@ -3023,7 +3028,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15">
+    <row r="57" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>119</v>
       </c>
@@ -3049,7 +3054,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15">
+    <row r="58" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>119</v>
       </c>
@@ -3075,7 +3080,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15">
+    <row r="59" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>119</v>
       </c>
@@ -3101,7 +3106,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15">
+    <row r="60" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>119</v>
       </c>
@@ -3127,7 +3132,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15">
+    <row r="61" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>119</v>
       </c>
@@ -3153,7 +3158,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15">
+    <row r="62" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>119</v>
       </c>
@@ -3179,10 +3184,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G63" s="10"/>
     </row>
-    <row r="64" spans="1:8" ht="15">
+    <row r="64" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>120</v>
       </c>
@@ -3208,7 +3213,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15">
+    <row r="65" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>120</v>
       </c>
@@ -3234,7 +3239,7 @@
         <v>1.84E-6</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15">
+    <row r="66" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>120</v>
       </c>
@@ -3260,7 +3265,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15">
+    <row r="67" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>120</v>
       </c>
@@ -3286,7 +3291,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15">
+    <row r="68" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>120</v>
       </c>
@@ -3312,7 +3317,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15">
+    <row r="69" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>120</v>
       </c>
@@ -3338,7 +3343,7 @@
         <v>9.0300000000000005E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15">
+    <row r="70" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>120</v>
       </c>
@@ -3367,7 +3372,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15">
+    <row r="71" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>120</v>
       </c>
@@ -3396,7 +3401,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15">
+    <row r="72" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>120</v>
       </c>
@@ -3425,7 +3430,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15">
+    <row r="73" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>120</v>
       </c>
@@ -3454,10 +3459,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G74" s="10"/>
     </row>
-    <row r="75" spans="1:9" ht="15">
+    <row r="75" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>121</v>
       </c>
@@ -3483,7 +3488,7 @@
         <v>46.853848333333332</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="8" customFormat="1" ht="15">
+    <row r="76" spans="1:9" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>121</v>
       </c>
@@ -3509,7 +3514,7 @@
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="8" customFormat="1" ht="15">
+    <row r="77" spans="1:9" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>121</v>
       </c>
@@ -3535,7 +3540,7 @@
         <v>1.271243E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="8" customFormat="1" ht="15">
+    <row r="78" spans="1:9" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>121</v>
       </c>
@@ -3561,7 +3566,7 @@
         <v>2.7474180000000001E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="8" customFormat="1" ht="15">
+    <row r="79" spans="1:9" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>121</v>
       </c>
@@ -3587,7 +3592,7 @@
         <v>-1.5384759999999999E-6</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="8" customFormat="1" ht="15">
+    <row r="80" spans="1:9" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>121</v>
       </c>
@@ -3613,7 +3618,7 @@
         <v>1.962203E-7</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="8" customFormat="1" ht="15">
+    <row r="81" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>121</v>
       </c>
@@ -3639,7 +3644,7 @@
         <v>-58.45279</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="8" customFormat="1" ht="15">
+    <row r="82" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>121</v>
       </c>
@@ -3665,7 +3670,7 @@
         <v>53.847279999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="8" customFormat="1" ht="15">
+    <row r="83" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>121</v>
       </c>
@@ -3691,7 +3696,7 @@
         <v>-0.54758289999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="8" customFormat="1" ht="15">
+    <row r="84" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>121</v>
       </c>
@@ -3717,7 +3722,7 @@
         <v>524685.69999999995</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="8" customFormat="1" ht="15">
+    <row r="85" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>121</v>
       </c>
@@ -3743,7 +3748,7 @@
         <v>37.232759999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="8" customFormat="1" ht="15">
+    <row r="86" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>121</v>
       </c>
@@ -3769,7 +3774,7 @@
         <v>-0.91068749999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="8" customFormat="1" ht="15">
+    <row r="87" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>121</v>
       </c>
@@ -3795,7 +3800,7 @@
         <v>24.993870000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="8" customFormat="1" ht="15">
+    <row r="88" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>121</v>
       </c>
@@ -3821,7 +3826,7 @@
         <v>-2.5000000000000001E-5</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="8" customFormat="1" ht="15">
+    <row r="89" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>121</v>
       </c>
@@ -3847,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="8" customFormat="1" ht="15">
+    <row r="90" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>121</v>
       </c>
@@ -3873,7 +3878,7 @@
         <v>0.1858051</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="8" customFormat="1" ht="15">
+    <row r="91" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>121</v>
       </c>
@@ -3899,7 +3904,7 @@
         <v>4.8880889999999995E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="8" customFormat="1" ht="15">
+    <row r="92" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>121</v>
       </c>
@@ -3925,7 +3930,7 @@
         <v>-6.2283480000000003E-12</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="8" customFormat="1" ht="15">
+    <row r="93" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
         <v>121</v>
       </c>
@@ -3951,7 +3956,7 @@
         <v>-0.98255250000000005</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="8" customFormat="1" ht="15">
+    <row r="94" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>121</v>
       </c>
@@ -3977,7 +3982,7 @@
         <v>0.1389213</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="8" customFormat="1" ht="15">
+    <row r="95" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
         <v>121</v>
       </c>
@@ -4003,7 +4008,7 @@
         <v>-2.5215239999999998E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="8" customFormat="1" ht="15">
+    <row r="96" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
         <v>121</v>
       </c>
@@ -4029,7 +4034,7 @@
         <v>3.7572340000000002E-5</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="8" customFormat="1" ht="15">
+    <row r="97" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>121</v>
       </c>
@@ -4055,7 +4060,7 @@
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="8" customFormat="1" ht="15">
+    <row r="98" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
         <v>121</v>
       </c>
@@ -4081,8 +4086,8 @@
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="10" customFormat="1"/>
-    <row r="100" spans="1:8" ht="15">
+    <row r="99" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>139</v>
       </c>
@@ -4108,7 +4113,7 @@
         <v>46.853848333333332</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15">
+    <row r="101" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>139</v>
       </c>
@@ -4134,7 +4139,7 @@
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="102" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>139</v>
       </c>
@@ -4160,7 +4165,7 @@
         <v>1.2886E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="103" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
         <v>139</v>
       </c>
@@ -4186,7 +4191,7 @@
         <v>2.6747309999999999E-4</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="104" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
         <v>139</v>
       </c>
@@ -4212,7 +4217,7 @@
         <v>-5.8357599999999998E-7</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="105" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>139</v>
       </c>
@@ -4238,7 +4243,7 @@
         <v>1.5942049999999999E-7</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="106" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
         <v>139</v>
       </c>
@@ -4264,7 +4269,7 @@
         <v>-63.97</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="107" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
         <v>139</v>
       </c>
@@ -4290,7 +4295,7 @@
         <v>53.352960000000003</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="108" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>139</v>
       </c>
@@ -4316,7 +4321,7 @@
         <v>-0.60973619999999995</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="109" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
         <v>139</v>
       </c>
@@ -4342,7 +4347,7 @@
         <v>524536.69999999995</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="110" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
         <v>139</v>
       </c>
@@ -4368,7 +4373,7 @@
         <v>-60.361229999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="111" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
         <v>139</v>
       </c>
@@ -4394,7 +4399,7 @@
         <v>0.93277659999999996</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="112" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>139</v>
       </c>
@@ -4420,7 +4425,7 @@
         <v>24.888870000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="113" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
         <v>139</v>
       </c>
@@ -4446,7 +4451,7 @@
         <v>-6.2500000000000001E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="114" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
         <v>139</v>
       </c>
@@ -4472,7 +4477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="115" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
         <v>139</v>
       </c>
@@ -4498,7 +4503,7 @@
         <v>-2.2917869999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="116" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
         <v>139</v>
       </c>
@@ -4524,7 +4529,7 @@
         <v>2.6512390000000001E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="117" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
         <v>139</v>
       </c>
@@ -4550,7 +4555,7 @@
         <v>1.57055E-11</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="118" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
         <v>139</v>
       </c>
@@ -4576,7 +4581,7 @@
         <v>-0.98847790000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="119" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>139</v>
       </c>
@@ -4602,7 +4607,7 @@
         <v>0.14048479999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="120" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
         <v>139</v>
       </c>
@@ -4628,7 +4633,7 @@
         <v>-5.8074639999999996E-4</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="121" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A121" s="10" t="s">
         <v>139</v>
       </c>
@@ -4654,7 +4659,7 @@
         <v>5.740902E-5</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="122" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
         <v>139</v>
       </c>
@@ -4680,7 +4685,7 @@
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="123" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
         <v>139</v>
       </c>
@@ -4706,10 +4711,10 @@
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G124" s="10"/>
     </row>
-    <row r="125" spans="1:8" ht="15">
+    <row r="125" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>122</v>
       </c>
@@ -4735,7 +4740,7 @@
         <v>46.853848333333332</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15">
+    <row r="126" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>122</v>
       </c>
@@ -4761,7 +4766,7 @@
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15">
+    <row r="127" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>122</v>
       </c>
@@ -4787,10 +4792,10 @@
         <v>180</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G128" s="10"/>
     </row>
-    <row r="129" spans="1:9" ht="15">
+    <row r="129" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>123</v>
       </c>
@@ -4816,7 +4821,7 @@
         <v>46.853848333333332</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="15">
+    <row r="130" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>123</v>
       </c>
@@ -4842,7 +4847,7 @@
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="15">
+    <row r="131" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>123</v>
       </c>
@@ -4868,10 +4873,10 @@
         <v>181</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G132" s="10"/>
     </row>
-    <row r="133" spans="1:9" ht="15">
+    <row r="133" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>124</v>
       </c>
@@ -4900,7 +4905,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="15">
+    <row r="134" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>124</v>
       </c>
@@ -4929,7 +4934,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="15">
+    <row r="135" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>124</v>
       </c>
@@ -4955,7 +4960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="15">
+    <row r="136" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>124</v>
       </c>
@@ -4981,7 +4986,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="15">
+    <row r="137" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>124</v>
       </c>
@@ -5007,7 +5012,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15">
+    <row r="138" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>124</v>
       </c>
@@ -5033,7 +5038,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="15">
+    <row r="139" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>124</v>
       </c>
@@ -5059,7 +5064,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="15">
+    <row r="141" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>125</v>
       </c>
@@ -5085,7 +5090,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="15">
+    <row r="142" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>125</v>
       </c>
@@ -5111,7 +5116,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="15">
+    <row r="143" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>125</v>
       </c>
@@ -5137,7 +5142,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="145" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="145" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A145" s="10" t="s">
         <v>140</v>
       </c>
@@ -5163,7 +5168,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="146" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
         <v>140</v>
       </c>
@@ -5189,7 +5194,7 @@
         <v>46.853848333333332</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="147" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A147" s="10" t="s">
         <v>140</v>
       </c>
@@ -5215,7 +5220,7 @@
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="148" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
         <v>140</v>
       </c>
@@ -5241,7 +5246,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="149" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
         <v>140</v>
       </c>
@@ -5267,7 +5272,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="150" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
         <v>140</v>
       </c>
@@ -5293,7 +5298,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="151" spans="1:8" s="10" customFormat="1" ht="15">
+    <row r="151" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
         <v>140</v>
       </c>
@@ -5319,8 +5324,8 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="10" customFormat="1"/>
-    <row r="153" spans="1:8" ht="15">
+    <row r="152" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>141</v>
       </c>
@@ -5346,7 +5351,7 @@
         <v>542000</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="15">
+    <row r="154" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>141</v>
       </c>
@@ -5372,7 +5377,7 @@
         <v>46.853848333333332</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="15">
+    <row r="155" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>141</v>
       </c>
@@ -5398,7 +5403,7 @@
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="15">
+    <row r="156" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>141</v>
       </c>
@@ -5424,7 +5429,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="15">
+    <row r="157" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>141</v>
       </c>
@@ -5450,7 +5455,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="15">
+    <row r="158" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>141</v>
       </c>
@@ -5476,7 +5481,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="15">
+    <row r="159" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>141</v>
       </c>
@@ -5502,14 +5507,14 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="10"/>
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
       <c r="F160" s="10"/>
       <c r="G160" s="10"/>
     </row>
-    <row r="161" spans="1:9" customFormat="1" ht="15">
+    <row r="161" spans="1:9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A161" s="10" t="s">
         <v>126</v>
       </c>
@@ -5535,7 +5540,7 @@
         <v>46.853848333333332</v>
       </c>
     </row>
-    <row r="162" spans="1:9" customFormat="1" ht="15">
+    <row r="162" spans="1:9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A162" s="10" t="s">
         <v>126</v>
       </c>
@@ -5561,11 +5566,11 @@
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="163" spans="1:9" customFormat="1" ht="15">
+    <row r="163" spans="1:9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B163" s="26"/>
       <c r="E163" s="26"/>
     </row>
-    <row r="164" spans="1:9" ht="15">
+    <row r="164" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>142</v>
       </c>
@@ -5591,7 +5596,7 @@
         <v>-5916.308</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="15">
+    <row r="165" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>142</v>
       </c>
@@ -5617,7 +5622,7 @@
         <v>195.72069999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="15">
+    <row r="166" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>142</v>
       </c>
@@ -5643,7 +5648,7 @@
         <v>16601.59</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="15">
+    <row r="167" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>142</v>
       </c>
@@ -5669,7 +5674,7 @@
         <v>6.8552000000000002E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="15">
+    <row r="168" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>142</v>
       </c>
@@ -5695,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15">
+    <row r="169" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>142</v>
       </c>
@@ -5724,7 +5729,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="15">
+    <row r="170" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>142</v>
       </c>
@@ -5750,7 +5755,7 @@
         <v>-0.40789999999999998</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="15">
+    <row r="171" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>142</v>
       </c>
@@ -5779,7 +5784,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="15">
+    <row r="172" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>142</v>
       </c>
@@ -5805,7 +5810,7 @@
         <v>30.066870000000002</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="15">
+    <row r="173" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>142</v>
       </c>
@@ -5831,7 +5836,7 @@
         <v>0.96473500000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="15">
+    <row r="174" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>142</v>
       </c>
@@ -5857,7 +5862,7 @@
         <v>43.283189999999998</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="15">
+    <row r="175" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>142</v>
       </c>
@@ -5883,7 +5888,7 @@
         <v>92.590029999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="15">
+    <row r="176" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>142</v>
       </c>
@@ -5909,7 +5914,7 @@
         <v>5.8215640000000004</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="15">
+    <row r="177" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>142</v>
       </c>
@@ -5935,7 +5940,7 @@
         <v>-3880.3739999999998</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="15">
+    <row r="178" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>142</v>
       </c>
@@ -5961,7 +5966,7 @@
         <v>-9063.1530000000002</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="15">
+    <row r="179" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>142</v>
       </c>
@@ -5987,7 +5992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="10" customFormat="1" ht="15">
+    <row r="180" spans="1:9" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A180" s="10" t="s">
         <v>142</v>
       </c>
@@ -6013,7 +6018,7 @@
         <v>838.8</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="10" customFormat="1" ht="15">
+    <row r="181" spans="1:9" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A181" s="10" t="s">
         <v>142</v>
       </c>
@@ -6039,7 +6044,7 @@
         <v>12582.9</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="15">
+    <row r="183" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>127</v>
       </c>
@@ -6065,7 +6070,7 @@
         <v>7.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="15">
+    <row r="184" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>127</v>
       </c>
@@ -6091,7 +6096,7 @@
         <v>0.73519999999999996</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="15">
+    <row r="185" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>127</v>
       </c>
@@ -6117,7 +6122,7 @@
         <v>-1.5599000000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="15">
+    <row r="186" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>127</v>
       </c>
@@ -6143,7 +6148,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="15">
+    <row r="187" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>127</v>
       </c>
@@ -6169,7 +6174,7 @@
         <v>19706</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="15">
+    <row r="188" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>127</v>
       </c>
@@ -6195,7 +6200,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="15">
+    <row r="189" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>127</v>
       </c>
@@ -6221,7 +6226,7 @@
         <v>3073</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="15">
+    <row r="190" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>127</v>
       </c>
@@ -6247,7 +6252,7 @@
         <v>44327</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="10" customFormat="1" ht="15">
+    <row r="192" spans="1:9" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A192" s="10" t="s">
         <v>196</v>
       </c>
@@ -6270,8 +6275,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="10" customFormat="1"/>
-    <row r="194" spans="1:9" ht="15">
+    <row r="193" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="194" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A194" s="10" t="s">
         <v>195</v>
       </c>
@@ -6294,8 +6299,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="10" customFormat="1"/>
-    <row r="196" spans="1:9" ht="15">
+    <row r="195" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="196" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>128</v>
       </c>
@@ -6315,7 +6320,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15">
+    <row r="197" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>129</v>
       </c>
@@ -6335,7 +6340,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="15">
+    <row r="198" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>130</v>
       </c>
@@ -6355,11 +6360,11 @@
         <v>189</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F199" s="22"/>
       <c r="I199" s="22"/>
     </row>
-    <row r="200" spans="1:9" ht="15">
+    <row r="200" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>131</v>
       </c>
@@ -6379,7 +6384,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="15">
+    <row r="201" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>132</v>
       </c>
@@ -6399,7 +6404,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="15">
+    <row r="202" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>133</v>
       </c>
@@ -6419,7 +6424,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="15">
+    <row r="203" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>134</v>
       </c>
@@ -6439,7 +6444,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="15">
+    <row r="204" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>135</v>
       </c>
@@ -6459,7 +6464,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="15">
+    <row r="205" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>136</v>
       </c>
@@ -6496,14 +6501,14 @@
       <selection activeCell="C10" sqref="A1:AM80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="39" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="25" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="39" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="14.45">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="25">
         <v>-3.0170000000000002E-3</v>
       </c>
@@ -6622,7 +6627,7 @@
         <v>1.9599999999999999E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:39" ht="14.45">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="25">
         <v>-2.6199999999999999E-3</v>
       </c>
@@ -6741,7 +6746,7 @@
         <v>9.59E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="14.45">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="25">
         <v>1.08E-3</v>
       </c>
@@ -6860,7 +6865,7 @@
         <v>-5.1060000000000003E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="14.45">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="25">
         <v>5.2709999999999996E-3</v>
       </c>
@@ -6979,7 +6984,7 @@
         <v>-8.9440000000000006E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="14.45">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="25">
         <v>8.0079999999999995E-3</v>
       </c>
@@ -7098,7 +7103,7 @@
         <v>-1.0677000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="14.45">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
         <v>9.8279999999999999E-3</v>
       </c>
@@ -7217,7 +7222,7 @@
         <v>-1.0921E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="14.45">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
         <v>1.0015E-2</v>
       </c>
@@ -7336,7 +7341,7 @@
         <v>-1.1219E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="14.45">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
         <v>7.7140000000000004E-3</v>
       </c>
@@ -7455,7 +7460,7 @@
         <v>-1.0883E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:39" ht="14.45">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="25">
         <v>6.6360000000000004E-3</v>
       </c>
@@ -7574,7 +7579,7 @@
         <v>-8.6560000000000005E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="14.45">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="25">
         <v>6.4409999999999997E-3</v>
       </c>
@@ -7693,7 +7698,7 @@
         <v>-8.7069999999999995E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="14.45">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="25">
         <v>5.836E-3</v>
       </c>
@@ -7812,7 +7817,7 @@
         <v>-8.1600000000000006E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="14.45">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="25">
         <v>4.4489999999999998E-3</v>
       </c>
@@ -7931,7 +7936,7 @@
         <v>-7.0600000000000003E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="14.45">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="25">
         <v>3.0730000000000002E-3</v>
       </c>
@@ -8050,7 +8055,7 @@
         <v>-6.2220000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="14.45">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="25">
         <v>2.7160000000000001E-3</v>
       </c>
@@ -8169,7 +8174,7 @@
         <v>-5.0679999999999996E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="14.45">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
         <v>2.5219999999999999E-3</v>
       </c>
@@ -8288,7 +8293,7 @@
         <v>-4.8349999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="14.45">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="25">
         <v>1.5009999999999999E-3</v>
       </c>
@@ -8407,7 +8412,7 @@
         <v>-4.0229999999999997E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:39" ht="14.45">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="25">
         <v>1.4920000000000001E-3</v>
       </c>
@@ -8526,7 +8531,7 @@
         <v>-3.408E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="14.45">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="25">
         <v>6.1899999999999998E-4</v>
       </c>
@@ -8645,7 +8650,7 @@
         <v>-3.042E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="14.45">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="25">
         <v>3.2200000000000002E-4</v>
       </c>
@@ -8764,7 +8769,7 @@
         <v>-2.4499999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="14.45">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="25">
         <v>-1.03E-4</v>
       </c>
@@ -8883,7 +8888,7 @@
         <v>-2.0019999999999999E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="14.45">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="25">
         <v>-3.6400000000000001E-4</v>
       </c>
@@ -9002,7 +9007,7 @@
         <v>-1.7129999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="14.45">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="25">
         <v>-1.263E-3</v>
       </c>
@@ -9121,7 +9126,7 @@
         <v>-1.1460000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="14.45">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="25">
         <v>-1.1069999999999999E-3</v>
       </c>
@@ -9240,7 +9245,7 @@
         <v>-8.6399999999999997E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="14.45">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="25">
         <v>-1.511E-3</v>
       </c>
@@ -9359,7 +9364,7 @@
         <v>-4.7100000000000001E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="14.45">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="25">
         <v>-1.779E-3</v>
       </c>
@@ -9478,7 +9483,7 @@
         <v>-2.8400000000000002E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="14.45">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="25">
         <v>-2.019E-3</v>
       </c>
@@ -9597,7 +9602,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="14.45">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="25">
         <v>-2.3530000000000001E-3</v>
       </c>
@@ -9716,7 +9721,7 @@
         <v>1.76E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="14.45">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="25">
         <v>-2.8389999999999999E-3</v>
       </c>
@@ -9835,7 +9840,7 @@
         <v>3.8499999999999998E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="14.45">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" s="25">
         <v>-2.944E-3</v>
       </c>
@@ -9954,7 +9959,7 @@
         <v>5.2999999999999998E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="14.45">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" s="25">
         <v>-3.2469999999999999E-3</v>
       </c>
@@ -10073,7 +10078,7 @@
         <v>8.1999999999999998E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="14.45">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" s="25">
         <v>-3.5969999999999999E-3</v>
       </c>
@@ -10192,7 +10197,7 @@
         <v>8.9800000000000004E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="14.45">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" s="25">
         <v>-3.6319999999999998E-3</v>
       </c>
@@ -10311,7 +10316,7 @@
         <v>1.049E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:39" ht="14.45">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" s="25">
         <v>-3.9300000000000003E-3</v>
       </c>
@@ -10430,7 +10435,7 @@
         <v>1.078E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:39" ht="14.45">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" s="25">
         <v>-3.986E-3</v>
       </c>
@@ -10549,7 +10554,7 @@
         <v>1.2489999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:39" ht="14.45">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" s="25">
         <v>-3.8379999999999998E-3</v>
       </c>
@@ -10668,7 +10673,7 @@
         <v>1.2800000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:39" ht="14.45">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A36" s="25">
         <v>-3.6819999999999999E-3</v>
       </c>
@@ -10787,7 +10792,7 @@
         <v>1.2539999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:39" ht="14.45">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A37" s="25">
         <v>-3.4459999999999998E-3</v>
       </c>
@@ -10906,7 +10911,7 @@
         <v>1.1230000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="14.45">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38" s="25">
         <v>-3.3830000000000002E-3</v>
       </c>
@@ -11025,7 +11030,7 @@
         <v>1.1440000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:39" ht="14.45">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" s="25">
         <v>-3.4870000000000001E-3</v>
       </c>
@@ -11144,7 +11149,7 @@
         <v>9.0499999999999999E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:39" ht="14.45">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40" s="25">
         <v>-3.5230000000000001E-3</v>
       </c>
@@ -11263,7 +11268,7 @@
         <v>6.8999999999999997E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:39" ht="14.45">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" s="25">
         <v>-3.5400000000000002E-3</v>
       </c>
@@ -11382,7 +11387,7 @@
         <v>4.4099999999999999E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:39" ht="14.45">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A42" s="25">
         <v>-3.5260000000000001E-3</v>
       </c>
@@ -11501,7 +11506,7 @@
         <v>2.2100000000000001E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:39" ht="14.45">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A43" s="25">
         <v>-3.1700000000000001E-3</v>
       </c>
@@ -11620,7 +11625,7 @@
         <v>-6.9999999999999994E-5</v>
       </c>
     </row>
-    <row r="44" spans="1:39" ht="14.45">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A44" s="25">
         <v>-3.026E-3</v>
       </c>
@@ -11739,7 +11744,7 @@
         <v>-3.0899999999999998E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:39" ht="14.45">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A45" s="25">
         <v>-3.4710000000000001E-3</v>
       </c>
@@ -11858,7 +11863,7 @@
         <v>-6.8900000000000005E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:39" ht="14.45">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A46" s="25">
         <v>-3.5869999999999999E-3</v>
       </c>
@@ -11977,7 +11982,7 @@
         <v>-5.4100000000000003E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:39" ht="14.45">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47" s="25">
         <v>-3.6579999999999998E-3</v>
       </c>
@@ -12096,7 +12101,7 @@
         <v>-5.0900000000000001E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:39" ht="14.45">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A48" s="25">
         <v>-3.722E-3</v>
       </c>
@@ -12215,7 +12220,7 @@
         <v>-4.5300000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:39" ht="14.45">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49" s="25">
         <v>-3.8739999999999998E-3</v>
       </c>
@@ -12334,7 +12339,7 @@
         <v>-3.77E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:39" ht="14.45">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A50" s="25">
         <v>-3.9579999999999997E-3</v>
       </c>
@@ -12453,7 +12458,7 @@
         <v>-2.6499999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:39" ht="14.45">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A51" s="25">
         <v>-4.1960000000000001E-3</v>
       </c>
@@ -12572,7 +12577,7 @@
         <v>-2.3800000000000001E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:39" ht="14.45">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A52" s="25">
         <v>-4.326E-3</v>
       </c>
@@ -12691,7 +12696,7 @@
         <v>-1.8699999999999999E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:39" ht="14.45">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A53" s="25">
         <v>-4.3759999999999997E-3</v>
       </c>
@@ -12810,7 +12815,7 @@
         <v>-1.4899999999999999E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:39" ht="14.45">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A54" s="25">
         <v>-4.568E-3</v>
       </c>
@@ -12929,7 +12934,7 @@
         <v>-1.7100000000000001E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:39" ht="14.45">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A55" s="25">
         <v>-4.7999999999999996E-3</v>
       </c>
@@ -13048,7 +13053,7 @@
         <v>-6.8999999999999997E-5</v>
       </c>
     </row>
-    <row r="56" spans="1:39" ht="14.45">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
         <v>-4.9020000000000001E-3</v>
       </c>
@@ -13167,7 +13172,7 @@
         <v>-3.4E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:39" ht="14.45">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A57" s="25">
         <v>-5.0000000000000001E-3</v>
       </c>
@@ -13286,7 +13291,7 @@
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:39" ht="14.45">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A58" s="25">
         <v>-5.2339999999999999E-3</v>
       </c>
@@ -13405,7 +13410,7 @@
         <v>1.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:39" ht="14.45">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A59" s="25">
         <v>-5.4559999999999999E-3</v>
       </c>
@@ -13524,7 +13529,7 @@
         <v>1.7000000000000001E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:39" ht="14.45">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A60" s="25">
         <v>-5.6379999999999998E-3</v>
       </c>
@@ -13643,7 +13648,7 @@
         <v>2.5599999999999999E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="14.45">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A61" s="25">
         <v>-5.8609999999999999E-3</v>
       </c>
@@ -13762,7 +13767,7 @@
         <v>3.2899999999999997E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:39" ht="14.45">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A62" s="25">
         <v>-6.1349999999999998E-3</v>
       </c>
@@ -13881,7 +13886,7 @@
         <v>3.7500000000000001E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:39" ht="14.45">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A63" s="25">
         <v>-6.4689999999999999E-3</v>
       </c>
@@ -14000,7 +14005,7 @@
         <v>4.9200000000000003E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:39" ht="14.45">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A64" s="25">
         <v>-6.6519999999999999E-3</v>
       </c>
@@ -14119,7 +14124,7 @@
         <v>5.13E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:39" ht="14.45">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A65" s="25">
         <v>-6.7099999999999998E-3</v>
       </c>
@@ -14238,7 +14243,7 @@
         <v>5.2800000000000004E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:39" ht="14.45">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A66" s="25">
         <v>-6.6109999999999997E-3</v>
       </c>
@@ -14357,7 +14362,7 @@
         <v>5.2400000000000005E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:39" ht="14.45">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A67" s="25">
         <v>-6.3990000000000002E-3</v>
       </c>
@@ -14476,7 +14481,7 @@
         <v>4.86E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:39" ht="14.45">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A68" s="25">
         <v>-6.221E-3</v>
       </c>
@@ -14595,7 +14600,7 @@
         <v>4.8099999999999998E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:39" ht="14.45">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A69" s="25">
         <v>-6.0130000000000001E-3</v>
       </c>
@@ -14714,7 +14719,7 @@
         <v>4.08E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:39" ht="14.45">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A70" s="25">
         <v>-5.9649999999999998E-3</v>
       </c>
@@ -14833,7 +14838,7 @@
         <v>2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:39" ht="14.45">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A71" s="25">
         <v>-5.7219999999999997E-3</v>
       </c>
@@ -14952,7 +14957,7 @@
         <v>1.21E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:39" ht="14.45">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A72" s="25">
         <v>-5.3639999999999998E-3</v>
       </c>
@@ -15071,7 +15076,7 @@
         <v>-2.0999999999999999E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A73" s="25">
         <v>-5.1729999999999996E-3</v>
       </c>
@@ -15190,7 +15195,7 @@
         <v>-1.7000000000000001E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A74" s="25">
         <v>-5.2779999999999997E-3</v>
       </c>
@@ -15309,7 +15314,7 @@
         <v>-2.33E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A75" s="25">
         <v>-5.5690000000000002E-3</v>
       </c>
@@ -15428,7 +15433,7 @@
         <v>-3.4699999999999998E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A76" s="25">
         <v>-6.0959999999999999E-3</v>
       </c>
@@ -15547,7 +15552,7 @@
         <v>-4.1800000000000002E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A77" s="25">
         <v>-6.2989999999999999E-3</v>
       </c>
@@ -15666,7 +15671,7 @@
         <v>-3.8299999999999999E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A78" s="25">
         <v>-6.6340000000000001E-3</v>
       </c>
@@ -15785,7 +15790,7 @@
         <v>-5.0799999999999999E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A79" s="25">
         <v>-7.0619999999999997E-3</v>
       </c>
@@ -15904,7 +15909,7 @@
         <v>-4.1100000000000002E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A80" s="25">
         <v>-6.5680000000000001E-3</v>
       </c>
@@ -16023,16 +16028,16 @@
         <v>-4.5100000000000001E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="9"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="9"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="9"/>
     </row>
   </sheetData>
@@ -16048,15 +16053,15 @@
       <selection activeCell="AA65" sqref="A1:AM80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="39" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="39" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="25">
         <v>1.1096E-2</v>
       </c>
@@ -16175,7 +16180,7 @@
         <v>-7.0870000000000004E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="25">
         <v>1.9990000000000001E-2</v>
       </c>
@@ -16294,7 +16299,7 @@
         <v>-5.2059999999999997E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="25">
         <v>1.8069000000000002E-2</v>
       </c>
@@ -16413,7 +16418,7 @@
         <v>-4.4130000000000003E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="25">
         <v>1.5543E-2</v>
       </c>
@@ -16532,7 +16537,7 @@
         <v>-3.1679999999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="25">
         <v>1.5062000000000001E-2</v>
       </c>
@@ -16651,7 +16656,7 @@
         <v>-2.2780000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
         <v>1.3579000000000001E-2</v>
       </c>
@@ -16770,7 +16775,7 @@
         <v>-1.792E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
         <v>1.1405999999999999E-2</v>
       </c>
@@ -16889,7 +16894,7 @@
         <v>-1.2329999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
         <v>1.0219000000000001E-2</v>
       </c>
@@ -17008,7 +17013,7 @@
         <v>-1.3810000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="25">
         <v>1.0685999999999999E-2</v>
       </c>
@@ -17127,7 +17132,7 @@
         <v>-1.951E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="25">
         <v>1.0251E-2</v>
       </c>
@@ -17246,7 +17251,7 @@
         <v>-1.859E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="25">
         <v>9.4439999999999993E-3</v>
       </c>
@@ -17365,7 +17370,7 @@
         <v>-7.9799999999999999E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="25">
         <v>8.8450000000000004E-3</v>
       </c>
@@ -17484,7 +17489,7 @@
         <v>-6.3900000000000003E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="25">
         <v>9.11E-3</v>
       </c>
@@ -17603,7 +17608,7 @@
         <v>-1.0269999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="25">
         <v>9.3200000000000002E-3</v>
       </c>
@@ -17722,7 +17727,7 @@
         <v>-6.69E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
         <v>8.7039999999999999E-3</v>
       </c>
@@ -17841,7 +17846,7 @@
         <v>-1.26E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="25">
         <v>8.9110000000000005E-3</v>
       </c>
@@ -17960,7 +17965,7 @@
         <v>5.8299999999999997E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="25">
         <v>7.953E-3</v>
       </c>
@@ -18079,7 +18084,7 @@
         <v>8.4999999999999995E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="25">
         <v>9.7330000000000003E-3</v>
       </c>
@@ -18198,7 +18203,7 @@
         <v>2.0100000000000001E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="25">
         <v>1.0602E-2</v>
       </c>
@@ -18317,7 +18322,7 @@
         <v>1.2300000000000001E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="25">
         <v>9.8809999999999992E-3</v>
       </c>
@@ -18436,7 +18441,7 @@
         <v>7.3800000000000005E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="25">
         <v>1.0196999999999999E-2</v>
       </c>
@@ -18555,7 +18560,7 @@
         <v>1.5299999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="25">
         <v>9.9019999999999993E-3</v>
       </c>
@@ -18674,7 +18679,7 @@
         <v>1.4170000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="25">
         <v>1.0081E-2</v>
       </c>
@@ -18793,7 +18798,7 @@
         <v>7.9699999999999997E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="25">
         <v>1.1207999999999999E-2</v>
       </c>
@@ -18912,7 +18917,7 @@
         <v>2.7300000000000002E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="25">
         <v>1.0865E-2</v>
       </c>
@@ -19031,7 +19036,7 @@
         <v>1.209E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="25">
         <v>9.8289999999999992E-3</v>
       </c>
@@ -19150,7 +19155,7 @@
         <v>2.0600000000000002E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="25">
         <v>9.6480000000000003E-3</v>
       </c>
@@ -19269,7 +19274,7 @@
         <v>2.2420000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="25">
         <v>9.7619999999999998E-3</v>
       </c>
@@ -19388,7 +19393,7 @@
         <v>1.5870000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" s="25">
         <v>1.0779E-2</v>
       </c>
@@ -19507,7 +19512,7 @@
         <v>6.2500000000000001E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" s="25">
         <v>1.125E-2</v>
       </c>
@@ -19626,7 +19631,7 @@
         <v>6.87E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" s="25">
         <v>1.0626E-2</v>
       </c>
@@ -19745,7 +19750,7 @@
         <v>1.549E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" s="25">
         <v>1.0435E-2</v>
       </c>
@@ -19864,7 +19869,7 @@
         <v>2.2690000000000002E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" s="25">
         <v>9.7730000000000004E-3</v>
       </c>
@@ -19983,7 +19988,7 @@
         <v>2.2699999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" s="25">
         <v>1.009E-2</v>
       </c>
@@ -20102,7 +20107,7 @@
         <v>1.271E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" s="25">
         <v>1.1586000000000001E-2</v>
       </c>
@@ -20221,7 +20226,7 @@
         <v>1.6000000000000001E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A36" s="25">
         <v>1.2154999999999999E-2</v>
       </c>
@@ -20340,7 +20345,7 @@
         <v>-1.2300000000000001E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A37" s="25">
         <v>1.2125E-2</v>
       </c>
@@ -20459,7 +20464,7 @@
         <v>9.7999999999999997E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38" s="25">
         <v>1.2177E-2</v>
       </c>
@@ -20578,7 +20583,7 @@
         <v>7.94E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" s="25">
         <v>1.1487000000000001E-2</v>
       </c>
@@ -20697,7 +20702,7 @@
         <v>1.1900000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40" s="25">
         <v>1.2144E-2</v>
       </c>
@@ -20816,7 +20821,7 @@
         <v>4.4499999999999997E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" s="25">
         <v>1.3206000000000001E-2</v>
       </c>
@@ -20935,7 +20940,7 @@
         <v>-8.7299999999999997E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A42" s="25">
         <v>1.4567E-2</v>
       </c>
@@ -21054,7 +21059,7 @@
         <v>-2.1749999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A43" s="25">
         <v>1.5851000000000001E-2</v>
       </c>
@@ -21173,7 +21178,7 @@
         <v>-3.0730000000000002E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A44" s="25">
         <v>1.6566000000000001E-2</v>
       </c>
@@ -21292,7 +21297,7 @@
         <v>-3.055E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A45" s="25">
         <v>1.2205000000000001E-2</v>
       </c>
@@ -21411,7 +21416,7 @@
         <v>-1.9849999999999998E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A46" s="25">
         <v>1.1498E-2</v>
       </c>
@@ -21530,7 +21535,7 @@
         <v>-1.047E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47" s="25">
         <v>1.0806E-2</v>
       </c>
@@ -21649,7 +21654,7 @@
         <v>-5.2099999999999998E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A48" s="25">
         <v>1.0401000000000001E-2</v>
       </c>
@@ -21768,7 +21773,7 @@
         <v>-7.36E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49" s="25">
         <v>1.0942E-2</v>
       </c>
@@ -21887,7 +21892,7 @@
         <v>-1.6639999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A50" s="25">
         <v>1.1664000000000001E-2</v>
       </c>
@@ -22006,7 +22011,7 @@
         <v>-2.627E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A51" s="25">
         <v>1.2312999999999999E-2</v>
       </c>
@@ -22125,7 +22130,7 @@
         <v>-3.1719999999999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A52" s="25">
         <v>1.2456999999999999E-2</v>
       </c>
@@ -22244,7 +22249,7 @@
         <v>-2.9260000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A53" s="25">
         <v>1.2045999999999999E-2</v>
       </c>
@@ -22363,7 +22368,7 @@
         <v>-2.2109999999999999E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A54" s="25">
         <v>1.0963000000000001E-2</v>
       </c>
@@ -22482,7 +22487,7 @@
         <v>-1.176E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A55" s="25">
         <v>1.0317E-2</v>
       </c>
@@ -22601,7 +22606,7 @@
         <v>-4.9700000000000005E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
         <v>9.8410000000000008E-3</v>
       </c>
@@ -22720,7 +22725,7 @@
         <v>-4.4099999999999999E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A57" s="25">
         <v>9.8060000000000005E-3</v>
       </c>
@@ -22839,7 +22844,7 @@
         <v>-1.0499999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A58" s="25">
         <v>1.0303E-2</v>
       </c>
@@ -22958,7 +22963,7 @@
         <v>-1.9530000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A59" s="25">
         <v>1.0918000000000001E-2</v>
       </c>
@@ -23077,7 +23082,7 @@
         <v>-2.8029999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A60" s="25">
         <v>1.1409000000000001E-2</v>
       </c>
@@ -23196,7 +23201,7 @@
         <v>-3.2339999999999999E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A61" s="25">
         <v>1.1468000000000001E-2</v>
       </c>
@@ -23315,7 +23320,7 @@
         <v>-3.1159999999999998E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A62" s="25">
         <v>1.1023E-2</v>
       </c>
@@ -23434,7 +23439,7 @@
         <v>-2.4650000000000002E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A63" s="25">
         <v>1.0685E-2</v>
       </c>
@@ -23553,7 +23558,7 @@
         <v>-1.5579999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A64" s="25">
         <v>9.8490000000000001E-3</v>
       </c>
@@ -23672,7 +23677,7 @@
         <v>-7.9699999999999997E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A65" s="25">
         <v>9.3880000000000005E-3</v>
       </c>
@@ -23791,7 +23796,7 @@
         <v>-2.7099999999999997E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A66" s="25">
         <v>9.1420000000000008E-3</v>
       </c>
@@ -23910,7 +23915,7 @@
         <v>-3.8200000000000002E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A67" s="25">
         <v>9.5250000000000005E-3</v>
       </c>
@@ -24029,7 +24034,7 @@
         <v>-1.0039999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A68" s="25">
         <v>1.0286E-2</v>
       </c>
@@ -24148,7 +24153,7 @@
         <v>-1.8240000000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A69" s="25">
         <v>1.1141E-2</v>
       </c>
@@ -24267,7 +24272,7 @@
         <v>-2.996E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A70" s="25">
         <v>1.2522E-2</v>
       </c>
@@ -24386,7 +24391,7 @@
         <v>-3.9329999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A71" s="25">
         <v>1.3295E-2</v>
       </c>
@@ -24505,7 +24510,7 @@
         <v>-4.4400000000000004E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A72" s="25">
         <v>1.3893000000000001E-2</v>
       </c>
@@ -24624,7 +24629,7 @@
         <v>-4.9319999999999998E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A73" s="25">
         <v>1.4447E-2</v>
       </c>
@@ -24743,7 +24748,7 @@
         <v>-4.7320000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A74" s="25">
         <v>1.4303E-2</v>
       </c>
@@ -24862,7 +24867,7 @@
         <v>-4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A75" s="25">
         <v>1.4043999999999999E-2</v>
       </c>
@@ -24981,7 +24986,7 @@
         <v>-3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A76" s="25">
         <v>1.3542E-2</v>
       </c>
@@ -25100,7 +25105,7 @@
         <v>-3.2629999999999998E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A77" s="25">
         <v>1.2692E-2</v>
       </c>
@@ -25219,7 +25224,7 @@
         <v>-2.8670000000000002E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A78" s="25">
         <v>1.2685999999999999E-2</v>
       </c>
@@ -25338,7 +25343,7 @@
         <v>-2.7139999999999998E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A79" s="25">
         <v>1.2317E-2</v>
       </c>
@@ -25457,7 +25462,7 @@
         <v>-2.5370000000000002E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A80" s="25">
         <v>1.1916E-2</v>
       </c>
@@ -25576,13 +25581,13 @@
         <v>-2.8709999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="7"/>
     </row>
   </sheetData>
@@ -25598,9 +25603,9 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="14.45">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>-1.217E-3</v>
       </c>
@@ -25716,7 +25721,7 @@
         <v>5.9250999999999998E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="14.45">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-1.6122999999999998E-2</v>
       </c>
@@ -25832,7 +25837,7 @@
         <v>5.2925E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="14.45">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-2.96E-3</v>
       </c>
@@ -25948,7 +25953,7 @@
         <v>3.1683999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="14.45">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.1277999999999998E-2</v>
       </c>
@@ -26064,7 +26069,7 @@
         <v>1.0460000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="14.45">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3.9567999999999999E-2</v>
       </c>
@@ -26180,7 +26185,7 @@
         <v>-6.4720000000000003E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="14.45">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5.2198000000000001E-2</v>
       </c>
@@ -26296,7 +26301,7 @@
         <v>-1.9453000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="14.45">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6.0463000000000003E-2</v>
       </c>
@@ -26412,7 +26417,7 @@
         <v>-2.5121999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="14.45">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5.9880999999999997E-2</v>
       </c>
@@ -26528,7 +26533,7 @@
         <v>-2.7699999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="14.45">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5.8949000000000001E-2</v>
       </c>
@@ -26644,7 +26649,7 @@
         <v>-2.793E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="14.45">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5.6152000000000001E-2</v>
       </c>
@@ -26760,7 +26765,7 @@
         <v>-2.6713000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="14.45">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5.1274E-2</v>
       </c>
@@ -26876,7 +26881,7 @@
         <v>-2.5260000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="14.45">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4.9993000000000003E-2</v>
       </c>
@@ -26992,7 +26997,7 @@
         <v>-2.4146000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="14.45">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4.6747999999999998E-2</v>
       </c>
@@ -27108,7 +27113,7 @@
         <v>-2.2589000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="14.45">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4.5406000000000002E-2</v>
       </c>
@@ -27224,7 +27229,7 @@
         <v>-2.1475000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="14.45">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4.4385000000000001E-2</v>
       </c>
@@ -27340,7 +27345,7 @@
         <v>-2.0431999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="14.45">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4.2183999999999999E-2</v>
       </c>
@@ -27456,7 +27461,7 @@
         <v>-1.9682999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="14.45">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4.0542000000000002E-2</v>
       </c>
@@ -27572,7 +27577,7 @@
         <v>-1.8891000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="14.45">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3.959E-2</v>
       </c>
@@ -27688,7 +27693,7 @@
         <v>-1.8186999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="14.45">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3.7962000000000003E-2</v>
       </c>
@@ -27804,7 +27809,7 @@
         <v>-1.7673999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="14.45">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3.7345000000000003E-2</v>
       </c>
@@ -27920,7 +27925,7 @@
         <v>-1.7127E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="14.45">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3.5869999999999999E-2</v>
       </c>
@@ -28036,7 +28041,7 @@
         <v>-1.6677000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="14.45">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3.5033000000000002E-2</v>
       </c>
@@ -28152,7 +28157,7 @@
         <v>-1.6188000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="14.45">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3.3671E-2</v>
       </c>
@@ -28268,7 +28273,7 @@
         <v>-1.5469E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="14.45">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3.3402000000000001E-2</v>
       </c>
@@ -28384,7 +28389,7 @@
         <v>-1.524E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="14.45">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3.2177999999999998E-2</v>
       </c>
@@ -28500,7 +28505,7 @@
         <v>-1.4589E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="14.45">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>3.1132E-2</v>
       </c>
@@ -28616,7 +28621,7 @@
         <v>-1.3883E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="14.45">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3.0834E-2</v>
       </c>
@@ -28732,7 +28737,7 @@
         <v>-1.3186E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="14.45">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2.9805000000000002E-2</v>
       </c>
@@ -28848,7 +28853,7 @@
         <v>-1.2496E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="14.45">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2.9288000000000002E-2</v>
       </c>
@@ -28964,7 +28969,7 @@
         <v>-1.1686E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="14.45">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2.8648E-2</v>
       </c>
@@ -29080,7 +29085,7 @@
         <v>-1.0984000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="14.45">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2.7969999999999998E-2</v>
       </c>
@@ -29196,7 +29201,7 @@
         <v>-1.0167000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="14.45">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2.7269000000000002E-2</v>
       </c>
@@ -29312,7 +29317,7 @@
         <v>-9.4359999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="14.45">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2.6849999999999999E-2</v>
       </c>
@@ -29428,7 +29433,7 @@
         <v>-8.6689999999999996E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="14.45">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2.6512000000000001E-2</v>
       </c>
@@ -29544,7 +29549,7 @@
         <v>-8.201E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="14.45">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2.5888999999999999E-2</v>
       </c>
@@ -29660,7 +29665,7 @@
         <v>-7.5820000000000002E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="14.45">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2.5593000000000001E-2</v>
       </c>
@@ -29776,7 +29781,7 @@
         <v>-7.1459999999999996E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -29892,7 +29897,7 @@
         <v>-6.8199999999999997E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2.4955999999999999E-2</v>
       </c>
@@ -30008,7 +30013,7 @@
         <v>-6.5339999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2.4978E-2</v>
       </c>
@@ -30124,7 +30129,7 @@
         <v>-6.4850000000000003E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2.4989000000000001E-2</v>
       </c>
@@ -30240,7 +30245,7 @@
         <v>-6.3990000000000002E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2.4895E-2</v>
       </c>
@@ -30356,7 +30361,7 @@
         <v>-6.4419999999999998E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2.4344000000000001E-2</v>
       </c>
@@ -30472,7 +30477,7 @@
         <v>-6.489E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2.2498000000000001E-2</v>
       </c>
@@ -30588,7 +30593,7 @@
         <v>-8.0070000000000002E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2.2270000000000002E-2</v>
       </c>
@@ -30704,7 +30709,7 @@
         <v>-7.9749999999999995E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2.1975999999999999E-2</v>
       </c>
@@ -30820,7 +30825,7 @@
         <v>-7.6290000000000004E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2.1724E-2</v>
       </c>
@@ -30936,7 +30941,7 @@
         <v>-7.3439999999999998E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2.1316000000000002E-2</v>
       </c>
@@ -31052,7 +31057,7 @@
         <v>-6.9160000000000003E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2.0830999999999999E-2</v>
       </c>
@@ -31168,7 +31173,7 @@
         <v>-6.5890000000000002E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2.0586E-2</v>
       </c>
@@ -31284,7 +31289,7 @@
         <v>-6.0029999999999997E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2.0147000000000002E-2</v>
       </c>
@@ -31400,7 +31405,7 @@
         <v>-5.8780000000000004E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1.9605999999999998E-2</v>
       </c>
@@ -31516,7 +31521,7 @@
         <v>-5.5599999999999998E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1.9136E-2</v>
       </c>
@@ -31632,7 +31637,7 @@
         <v>-5.2030000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1.8865E-2</v>
       </c>
@@ -31748,7 +31753,7 @@
         <v>-5.1460000000000004E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1.8439000000000001E-2</v>
       </c>
@@ -31864,7 +31869,7 @@
         <v>-5.0990000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1.8269000000000001E-2</v>
       </c>
@@ -31980,7 +31985,7 @@
         <v>-5.0689999999999997E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1.8076999999999999E-2</v>
       </c>
@@ -32096,7 +32101,7 @@
         <v>-5.1700000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1.7874000000000001E-2</v>
       </c>
@@ -32212,7 +32217,7 @@
         <v>-5.2430000000000003E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1.7760999999999999E-2</v>
       </c>
@@ -32328,7 +32333,7 @@
         <v>-5.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1.7892000000000002E-2</v>
       </c>
@@ -32444,7 +32449,7 @@
         <v>-5.535E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1.7656999999999999E-2</v>
       </c>
@@ -32560,7 +32565,7 @@
         <v>-5.5599999999999998E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1.7566999999999999E-2</v>
       </c>
@@ -32676,7 +32681,7 @@
         <v>-5.4289999999999998E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1.7226000000000002E-2</v>
       </c>
@@ -32792,7 +32797,7 @@
         <v>-5.6109999999999997E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1.7124E-2</v>
       </c>
@@ -32908,7 +32913,7 @@
         <v>-5.5909999999999996E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1.7017000000000001E-2</v>
       </c>
@@ -33024,7 +33029,7 @@
         <v>-5.7629999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1.6993000000000001E-2</v>
       </c>
@@ -33140,7 +33145,7 @@
         <v>-5.7260000000000002E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1.6854000000000001E-2</v>
       </c>
@@ -33256,7 +33261,7 @@
         <v>-5.7409999999999996E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1.6847000000000001E-2</v>
       </c>
@@ -33372,7 +33377,7 @@
         <v>-5.6940000000000003E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1.6865000000000002E-2</v>
       </c>
@@ -33488,7 +33493,7 @@
         <v>-5.6690000000000004E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1.6999E-2</v>
       </c>
@@ -33604,7 +33609,7 @@
         <v>-5.5180000000000003E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1.6573000000000001E-2</v>
       </c>
@@ -33720,7 +33725,7 @@
         <v>-5.3369999999999997E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1.6441000000000001E-2</v>
       </c>
@@ -33836,7 +33841,7 @@
         <v>-5.1720000000000004E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1.6501999999999999E-2</v>
       </c>
@@ -33952,7 +33957,7 @@
         <v>-4.9969999999999997E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1.6566000000000001E-2</v>
       </c>
@@ -34068,7 +34073,7 @@
         <v>-4.8919999999999996E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1.6815E-2</v>
       </c>
@@ -34184,7 +34189,7 @@
         <v>-4.679E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1.6834999999999999E-2</v>
       </c>
@@ -34300,7 +34305,7 @@
         <v>-4.4840000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1.6635E-2</v>
       </c>
@@ -34416,7 +34421,7 @@
         <v>-4.2709999999999996E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1.6372999999999999E-2</v>
       </c>
@@ -34532,7 +34537,7 @@
         <v>-4.0819999999999997E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1.6570999999999999E-2</v>
       </c>
@@ -34648,7 +34653,7 @@
         <v>-4.0020000000000003E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1.6389000000000001E-2</v>
       </c>
@@ -34764,7 +34769,7 @@
         <v>-3.8790000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:38">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1.6128E-2</v>
       </c>
@@ -34880,7 +34885,7 @@
         <v>-3.8040000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:38">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1.6001999999999999E-2</v>
       </c>
@@ -34996,7 +35001,7 @@
         <v>-3.7650000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:38">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1.6177E-2</v>
       </c>
@@ -35112,7 +35117,7 @@
         <v>-3.8379999999999998E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:38">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1.6069E-2</v>
       </c>
@@ -35228,7 +35233,7 @@
         <v>-3.836E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:38">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1.6045E-2</v>
       </c>
@@ -35344,7 +35349,7 @@
         <v>-4.0330000000000001E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:38">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1.6611000000000001E-2</v>
       </c>
@@ -35473,9 +35478,9 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="14.45">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>4.4850000000000001E-2</v>
       </c>
@@ -35591,7 +35596,7 @@
         <v>-4.3519000000000002E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="14.45">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3.9183999999999997E-2</v>
       </c>
@@ -35707,7 +35712,7 @@
         <v>-3.7317000000000003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="14.45">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2.9572999999999999E-2</v>
       </c>
@@ -35823,7 +35828,7 @@
         <v>-3.3651E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="14.45">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1.9889E-2</v>
       </c>
@@ -35939,7 +35944,7 @@
         <v>-3.2308000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="14.45">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1.8782E-2</v>
       </c>
@@ -36055,7 +36060,7 @@
         <v>-3.0528E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="14.45">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1.336E-2</v>
       </c>
@@ -36171,7 +36176,7 @@
         <v>-2.7786000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="14.45">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8.3269999999999993E-3</v>
       </c>
@@ -36287,7 +36292,7 @@
         <v>-2.5936000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="14.45">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8.2279999999999992E-3</v>
       </c>
@@ -36403,7 +36408,7 @@
         <v>-2.4084999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="14.45">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7.0349999999999996E-3</v>
       </c>
@@ -36519,7 +36524,7 @@
         <v>-2.2527999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="14.45">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5.7910000000000001E-3</v>
       </c>
@@ -36635,7 +36640,7 @@
         <v>-2.2658999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="14.45">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5.5459999999999997E-3</v>
       </c>
@@ -36751,7 +36756,7 @@
         <v>-2.1316000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="14.45">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4.3299999999999996E-3</v>
       </c>
@@ -36867,7 +36872,7 @@
         <v>-2.027E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="14.45">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3.1689999999999999E-3</v>
       </c>
@@ -36983,7 +36988,7 @@
         <v>-1.9577000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="14.45">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4.045E-3</v>
       </c>
@@ -37099,7 +37104,7 @@
         <v>-1.7666000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="14.45">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.2620000000000001E-3</v>
       </c>
@@ -37215,7 +37220,7 @@
         <v>-1.7545000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="14.45">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>9.5799999999999998E-4</v>
       </c>
@@ -37331,7 +37336,7 @@
         <v>-1.6750999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="14.45">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>-3.8099999999999999E-4</v>
       </c>
@@ -37447,7 +37452,7 @@
         <v>-1.5461000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="14.45">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>-2.052E-3</v>
       </c>
@@ -37563,7 +37568,7 @@
         <v>-1.5084E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="14.45">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>-2.333E-3</v>
       </c>
@@ -37679,7 +37684,7 @@
         <v>-1.4002000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="14.45">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>-3.1670000000000001E-3</v>
       </c>
@@ -37795,7 +37800,7 @@
         <v>-1.2987E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="14.45">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>-4.2989999999999999E-3</v>
       </c>
@@ -37911,7 +37916,7 @@
         <v>-1.2781000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="14.45">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>-2.7460000000000002E-3</v>
       </c>
@@ -38027,7 +38032,7 @@
         <v>-1.1978000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="14.45">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>-4.0660000000000002E-3</v>
       </c>
@@ -38143,7 +38148,7 @@
         <v>-1.1528999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="14.45">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>-3.4299999999999999E-3</v>
       </c>
@@ -38259,7 +38264,7 @@
         <v>-1.0923E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="14.45">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>-2.9870000000000001E-3</v>
       </c>
@@ -38375,7 +38380,7 @@
         <v>-1.0501999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="14.45">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>-3.3969999999999998E-3</v>
       </c>
@@ -38491,7 +38496,7 @@
         <v>-1.0293999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="14.45">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>-2.7100000000000002E-3</v>
       </c>
@@ -38607,7 +38612,7 @@
         <v>-9.8399999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="14.45">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>-2.5569999999999998E-3</v>
       </c>
@@ -38723,7 +38728,7 @@
         <v>-9.3860000000000002E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="14.45">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>-2.0509999999999999E-3</v>
       </c>
@@ -38839,7 +38844,7 @@
         <v>-9.5239999999999995E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="14.45">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>-1.1529999999999999E-3</v>
       </c>
@@ -38955,7 +38960,7 @@
         <v>-9.3489999999999997E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="14.45">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>-7.0899999999999999E-4</v>
       </c>
@@ -39071,7 +39076,7 @@
         <v>-9.1979999999999996E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="14.45">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>-3.3500000000000001E-4</v>
       </c>
@@ -39187,7 +39192,7 @@
         <v>-9.0749999999999997E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="14.45">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3.1700000000000001E-4</v>
       </c>
@@ -39303,7 +39308,7 @@
         <v>-9.077E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="14.45">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3.68E-4</v>
       </c>
@@ -39419,7 +39424,7 @@
         <v>-8.9750000000000003E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="14.45">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>7.3999999999999999E-4</v>
       </c>
@@ -39535,7 +39540,7 @@
         <v>-8.9180000000000006E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="14.45">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3.8999999999999999E-4</v>
       </c>
@@ -39651,7 +39656,7 @@
         <v>-8.6619999999999996E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>-3.77E-4</v>
       </c>
@@ -39767,7 +39772,7 @@
         <v>-8.6339999999999993E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>-5.5199999999999997E-4</v>
       </c>
@@ -39883,7 +39888,7 @@
         <v>-8.4720000000000004E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>-1.413E-3</v>
       </c>
@@ -39999,7 +40004,7 @@
         <v>-8.1460000000000005E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>-1.8979999999999999E-3</v>
       </c>
@@ -40115,7 +40120,7 @@
         <v>-8.1770000000000002E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>-2.1819999999999999E-3</v>
       </c>
@@ -40231,7 +40236,7 @@
         <v>-7.9459999999999999E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>-2.82E-3</v>
       </c>
@@ -40347,7 +40352,7 @@
         <v>-7.8810000000000009E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>-5.8450000000000004E-3</v>
       </c>
@@ -40463,7 +40468,7 @@
         <v>-6.7990000000000004E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>-6.1799999999999997E-3</v>
       </c>
@@ -40579,7 +40584,7 @@
         <v>-6.7070000000000003E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>-6.5389999999999997E-3</v>
       </c>
@@ -40695,7 +40700,7 @@
         <v>-6.6930000000000002E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>-6.3860000000000002E-3</v>
       </c>
@@ -40811,7 +40816,7 @@
         <v>-6.8110000000000002E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>-6.234E-3</v>
       </c>
@@ -40927,7 +40932,7 @@
         <v>-6.8729999999999998E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>-5.921E-3</v>
       </c>
@@ -41043,7 +41048,7 @@
         <v>-7.0410000000000004E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>-5.2649999999999997E-3</v>
       </c>
@@ -41159,7 +41164,7 @@
         <v>-7.2529999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>-4.6709999999999998E-3</v>
       </c>
@@ -41275,7 +41280,7 @@
         <v>-7.3249999999999999E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>-3.9139999999999999E-3</v>
       </c>
@@ -41391,7 +41396,7 @@
         <v>-7.4019999999999997E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>-3.3379999999999998E-3</v>
       </c>
@@ -41507,7 +41512,7 @@
         <v>-7.4590000000000004E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>-2.8630000000000001E-3</v>
       </c>
@@ -41623,7 +41628,7 @@
         <v>-7.2329999999999998E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>-2.5950000000000001E-3</v>
       </c>
@@ -41739,7 +41744,7 @@
         <v>-7.1900000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>-2.2750000000000001E-3</v>
       </c>
@@ -41855,7 +41860,7 @@
         <v>-6.9519999999999998E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>-1.8400000000000001E-3</v>
       </c>
@@ -41971,7 +41976,7 @@
         <v>-6.6689999999999996E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>-1.9289999999999999E-3</v>
       </c>
@@ -42087,7 +42092,7 @@
         <v>-6.6299999999999996E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>-2.0300000000000001E-3</v>
       </c>
@@ -42203,7 +42208,7 @@
         <v>-6.3080000000000002E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>-2.0089999999999999E-3</v>
       </c>
@@ -42319,7 +42324,7 @@
         <v>-6.0219999999999996E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>-2.2070000000000002E-3</v>
       </c>
@@ -42435,7 +42440,7 @@
         <v>-6.1789999999999996E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>-1.639E-3</v>
       </c>
@@ -42551,7 +42556,7 @@
         <v>-5.9179999999999996E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>-1.768E-3</v>
       </c>
@@ -42667,7 +42672,7 @@
         <v>-5.7629999999999999E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>-2.0270000000000002E-3</v>
       </c>
@@ -42783,7 +42788,7 @@
         <v>-5.9030000000000003E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>-1.542E-3</v>
       </c>
@@ -42899,7 +42904,7 @@
         <v>-5.6210000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>-1.1839999999999999E-3</v>
       </c>
@@ -43015,7 +43020,7 @@
         <v>-5.4819999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>-1.065E-3</v>
       </c>
@@ -43131,7 +43136,7 @@
         <v>-5.5630000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>-1.1509999999999999E-3</v>
       </c>
@@ -43247,7 +43252,7 @@
         <v>-5.5539999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>-7.7499999999999997E-4</v>
       </c>
@@ -43363,7 +43368,7 @@
         <v>-5.3239999999999997E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2.99E-4</v>
       </c>
@@ -43479,7 +43484,7 @@
         <v>-5.4510000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>3.1799999999999998E-4</v>
       </c>
@@ -43595,7 +43600,7 @@
         <v>-5.901E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>6.1399999999999996E-4</v>
       </c>
@@ -43711,7 +43716,7 @@
         <v>-5.7650000000000002E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1.869E-3</v>
       </c>
@@ -43827,7 +43832,7 @@
         <v>-5.6880000000000003E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1.691E-3</v>
       </c>
@@ -43943,7 +43948,7 @@
         <v>-6.13E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2.0119999999999999E-3</v>
       </c>
@@ -44059,7 +44064,7 @@
         <v>-6.3470000000000002E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2.8839999999999998E-3</v>
       </c>
@@ -44175,7 +44180,7 @@
         <v>-6.025E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>3.0179999999999998E-3</v>
       </c>
@@ -44291,7 +44296,7 @@
         <v>-6.0769999999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2.614E-3</v>
       </c>
@@ -44407,7 +44412,7 @@
         <v>-6.1279999999999998E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2.6389999999999999E-3</v>
       </c>
@@ -44523,7 +44528,7 @@
         <v>-6.2789999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2.3890000000000001E-3</v>
       </c>
@@ -44639,7 +44644,7 @@
         <v>-6.3220000000000004E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:38">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2.418E-3</v>
       </c>
@@ -44755,7 +44760,7 @@
         <v>-5.6829999999999997E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:38">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1.5510000000000001E-3</v>
       </c>
@@ -44871,7 +44876,7 @@
         <v>-5.587E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:38">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1.6980000000000001E-3</v>
       </c>
@@ -44987,7 +44992,7 @@
         <v>-6.0070000000000002E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:38">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1.8799999999999999E-4</v>
       </c>
@@ -45103,7 +45108,7 @@
         <v>-5.9059999999999998E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:38">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>-4.06E-4</v>
       </c>
@@ -45219,7 +45224,7 @@
         <v>-5.8310000000000002E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:38">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>-1.366E-3</v>
       </c>
